--- a/avr-gcc/gcc-assembly/figs/param_pass.xlsx
+++ b/avr-gcc/gcc-assembly/figs/param_pass.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="14400" windowHeight="5790"/>
+    <workbookView activeTab="0" windowWidth="6000" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,14 @@
   <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
   <webPublishing allowPng="1" css="0" characterSet="UTF-8"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1" count="1">
+  <si>
+    <t>Register</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -128,16 +136,16 @@
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
+      <alignment horizontal="general" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
+      <alignment horizontal="general" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
+      <alignment horizontal="general" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
+      <alignment horizontal="general" vertical="center" wrapText="1" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -151,21 +159,19 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A1" sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="10.713641826923078" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="0" width="9.856550480769231" bestFit="1" customWidth="1"/>
     <col min="2" max="9" style="0" width="3.7140625000000003" bestFit="1" customWidth="1"/>
-    <col min="10" max="256" style="0" width="9.142307692307693"/>
+    <col min="10" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Register</t>
-        </is>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
@@ -280,8 +286,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="9.142307692307693"/>
-    <col min="2" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
@@ -308,8 +313,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" style="0" width="9.142307692307693"/>
-    <col min="2" max="256" style="0" width="9.142307692307693"/>
+    <col min="1" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData/>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
